--- a/TODO_Projet_Takalo_Takalo_v2.xlsx
+++ b/TODO_Projet_Takalo_Takalo_v2.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="42">
   <si>
     <t>Qui</t>
   </si>
@@ -72,10 +72,13 @@
     <t>Insertion utilisateur (Utilisateur::inscrire + hash mot de passe)</t>
   </si>
   <si>
-    <t>Redirection + message session après inscription</t>
-  </si>
-  <si>
-    <t>Validation serveur complète des champs obligatoires à finaliser</t>
+    <t>Soumission AJAX(fetch + retour JSON + redirection front)</t>
+  </si>
+  <si>
+    <t>Validation serveur des champs obligatoires(nom, prenom, email, password, telephone) via FormValidator</t>
+  </si>
+  <si>
+    <t>Regle mot de passe fort(8+ chars, majuscule, minuscule, chiffre, caractere special)</t>
   </si>
   <si>
     <t>Connexion utilisateur</t>
@@ -90,7 +93,10 @@
     <t>Variables de session utilisateur stockées après login</t>
   </si>
   <si>
-    <t>Régénération ID session au login non faite (fixation session)</t>
+    <t>Soumission AJAX (fetch + retour JSON sur succes/erreur)</t>
+  </si>
+  <si>
+    <t>Detection requete AJAX factorisee dans RequestHelper::isAjaxRequest</t>
   </si>
   <si>
     <t>Logout existant (session_destroy) mais nettoyage à renforcer</t>
@@ -123,6 +129,12 @@
     <t>Modification objet fonctionnelle (POST /objet/modifier/@id)</t>
   </si>
   <si>
+    <t>Soumission AJAX implementee pour ajout/modification (modales + fetch + JSON)</t>
+  </si>
+  <si>
+    <t>Validation centralisee avec FormValidator::validateObjetData</t>
+  </si>
+  <si>
     <t>Suppression objet présente via GET (à migrer en POST)</t>
   </si>
   <si>
@@ -132,7 +144,7 @@
     <t>Propositions et échanges</t>
   </si>
   <si>
-    <t>Création proposition en place (POST /proposition/creer + Proposition::create)</t>
+    <t>Création proposition (POST /proposition/creer + Proposition::create)</t>
   </si>
   <si>
     <t>Pages reçues/envoyées en place (GET /echanges + vue onglets)</t>
@@ -157,10 +169,17 @@
     <numFmt numFmtId="176" formatCode="_-&quot;€&quot;* #,##0.00_-;\-&quot;€&quot;* #,##0.00_-;_-&quot;€&quot;* \-??_-;_-@_-"/>
     <numFmt numFmtId="177" formatCode="_-&quot;€&quot;* #,##0_-;\-&quot;€&quot;* #,##0_-;_-&quot;€&quot;* \-_-;_-@_-"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -310,12 +329,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -504,12 +529,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -628,55 +668,52 @@
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -691,76 +728,81 @@
     <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1717,7 +1759,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" refreshedDate="46064.8183333333" refreshedBy="Ianjara" recordCount="23">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G24" sheet="TODO Takalo-Takalo"/>
+    <worksheetSource ref="A1:G28" sheet="TODO Takalo-Takalo"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="Module" numFmtId="0">
@@ -2366,7 +2408,7 @@
   <dimension ref="A3:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="4" outlineLevelCol="1"/>
@@ -2409,615 +2451,715 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="1" width="23.7272727272727" customWidth="1"/>
-    <col min="2" max="2" width="78.0909090909091" customWidth="1"/>
+    <col min="2" max="2" width="98.6363636363636" customWidth="1"/>
     <col min="3" max="3" width="16" customWidth="1"/>
     <col min="4" max="5" width="17.6363636363636" customWidth="1"/>
     <col min="6" max="6" width="15.7272727272727" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>10</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>10</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="2">
         <f>C2-D2</f>
         <v>0</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2" s="3">
         <f>D2/(D2+E2)</f>
         <v>1</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>5</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>5</v>
       </c>
-      <c r="E3">
-        <f t="shared" ref="E3:E36" si="0">C3-D3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F36" si="1">D3/(D3+E3)</f>
+      <c r="E3" s="2">
+        <f>C3-D3</f>
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <f>D3/(D3+E3)</f>
         <v>1</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
+        <v>20</v>
+      </c>
+      <c r="D4" s="2">
+        <v>20</v>
+      </c>
+      <c r="E4" s="2">
+        <f>C4-D4</f>
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <f>D4/(D4+E4)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>35</v>
+      </c>
+      <c r="D5" s="2">
+        <v>30</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <f>D5/(D5+E5)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="2">
+        <v>15</v>
+      </c>
+      <c r="D6" s="2">
+        <v>15</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <f>D6/(D6+E6)</f>
+        <v>1</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>15</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <f>D7/(D7+E7)</f>
+        <v>1</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="2">
+        <v>20</v>
+      </c>
+      <c r="D8" s="2">
+        <v>20</v>
+      </c>
+      <c r="E8" s="2">
+        <f>C8-D8</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <f>D8/(D8+E8)</f>
+        <v>1</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>10</v>
+      </c>
+      <c r="E9" s="2">
+        <f>C9-D9</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <f>D9/(D9+E9)</f>
+        <v>1</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2">
+        <v>20</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <f>C10-D10</f>
+        <v>20</v>
+      </c>
+      <c r="F10" s="3">
+        <f>D10/(D10+E10)</f>
+        <v>0</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="2">
+        <v>15</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <f>C11-D11</f>
+        <v>15</v>
+      </c>
+      <c r="F11" s="3">
+        <f>D11/(D11+E11)</f>
+        <v>0</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="2">
         <v>5</v>
       </c>
-      <c r="D4">
+      <c r="D12" s="2">
         <v>5</v>
       </c>
-      <c r="E4">
+      <c r="E12" s="2">
+        <f>C12-D12</f>
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <f>D12/(D12+E12)</f>
+        <v>1</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="2">
+        <v>20</v>
+      </c>
+      <c r="D13" s="2">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="3">
+        <f>D13/(D13+E13)</f>
+        <v>1</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="2">
+        <v>30</v>
+      </c>
+      <c r="D14" s="2">
+        <v>30</v>
+      </c>
+      <c r="E14" s="2">
+        <f>C14-D14</f>
+        <v>0</v>
+      </c>
+      <c r="F14" s="3">
+        <f>D14/(D14+E14)</f>
+        <v>1</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="2">
+        <v>20</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20</v>
+      </c>
+      <c r="E15" s="2">
+        <f>C15-D15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="3">
+        <f>D15/(D15+E15)</f>
+        <v>1</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="2">
+        <v>25</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <f>C16-D16</f>
+        <v>25</v>
+      </c>
+      <c r="F16" s="3">
+        <f>D16/(D16+E16)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17" s="2">
+        <v>15</v>
+      </c>
+      <c r="D17" s="2">
+        <v>20</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="3">
+        <f>D17/(D17+E17)</f>
+        <v>1</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="2">
+        <v>30</v>
+      </c>
+      <c r="D18" s="2">
+        <v>40</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="3">
+        <f>D18/(D18+E18)</f>
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C19" s="2">
+        <v>20</v>
+      </c>
+      <c r="D19" s="2">
+        <v>20</v>
+      </c>
+      <c r="E19" s="2">
+        <f>C19-D19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="3">
+        <f>D19/(D19+E19)</f>
+        <v>1</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C20" s="2">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2">
+        <v>35</v>
+      </c>
+      <c r="E20" s="2">
+        <f>C20-D20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="3">
+        <f>D20/(D20+E20)</f>
+        <v>1</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="2">
+        <v>20</v>
+      </c>
+      <c r="D21" s="2">
+        <v>20</v>
+      </c>
+      <c r="E21" s="2">
+        <f>C21-D21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <f>D21/(D21+E21)</f>
+        <v>1</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>10</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" ref="E22:E40" si="0">C22-D22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <f t="shared" ref="F22:F40" si="1">D22/(D22+E22)</f>
+        <v>1</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="2">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2">
+        <v>15</v>
+      </c>
+      <c r="E23" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F23" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G23" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>35</v>
-      </c>
-      <c r="D5">
-        <v>30</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
+    <row r="24" spans="1:7">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="2">
+        <v>25</v>
+      </c>
+      <c r="D24" s="2">
+        <v>20</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G24" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>15</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
+    <row r="25" spans="1:7">
+      <c r="A25" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="2">
+        <v>25</v>
+      </c>
+      <c r="D25" s="2">
+        <v>25</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G25" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+    <row r="26" spans="1:7">
+      <c r="A26" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="2">
         <v>15</v>
       </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>20</v>
-      </c>
-      <c r="D7">
-        <v>20</v>
-      </c>
-      <c r="E7">
+      <c r="D26" s="2">
+        <v>15</v>
+      </c>
+      <c r="E26" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F26" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G7" t="s">
+      <c r="G26" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
+    <row r="27" spans="1:7">
+      <c r="A27" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="2">
         <v>10</v>
       </c>
-      <c r="D8">
+      <c r="D27" s="2">
         <v>10</v>
       </c>
-      <c r="E8">
+      <c r="E27" s="2">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F27" s="3">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G27" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9">
-        <v>20</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+    <row r="28" spans="1:7">
+      <c r="A28" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="2">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
         <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-      <c r="F9" s="1">
+        <v>10</v>
+      </c>
+      <c r="F28" s="3">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10">
-        <v>5</v>
-      </c>
-      <c r="D10">
-        <v>5</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11">
-        <v>20</v>
-      </c>
-      <c r="D11">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12">
-        <v>30</v>
-      </c>
-      <c r="D12">
-        <v>30</v>
-      </c>
-      <c r="E12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G12" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>20</v>
-      </c>
-      <c r="E13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14">
-        <v>25</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15">
-        <v>15</v>
-      </c>
-      <c r="D15">
-        <v>20</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-      <c r="D16">
-        <v>40</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
-        <v>26</v>
-      </c>
-      <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17">
-        <v>20</v>
-      </c>
-      <c r="D17">
-        <v>20</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C18">
-        <v>10</v>
-      </c>
-      <c r="D18">
-        <v>10</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19">
-        <v>15</v>
-      </c>
-      <c r="D19">
-        <v>15</v>
-      </c>
-      <c r="E19">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C20">
-        <v>25</v>
-      </c>
-      <c r="D20">
-        <v>20</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21">
-        <v>25</v>
-      </c>
-      <c r="D21">
-        <v>25</v>
-      </c>
-      <c r="E21">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
-        <v>32</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
-      </c>
-      <c r="C22">
-        <v>15</v>
-      </c>
-      <c r="D22">
-        <v>15</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23">
-        <v>10</v>
-      </c>
-      <c r="D23">
-        <v>10</v>
-      </c>
-      <c r="E23">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>32</v>
-      </c>
-      <c r="B24" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24">
-        <v>10</v>
-      </c>
-      <c r="D24">
-        <v>10</v>
-      </c>
-      <c r="E24">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="1">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
+      <c r="G28" s="2" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/TODO_Projet_Takalo_Takalo_v2.xlsx
+++ b/TODO_Projet_Takalo_Takalo_v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="53">
   <si>
     <t xml:space="preserve">Qui</t>
   </si>
@@ -153,6 +153,36 @@
   </si>
   <si>
     <t xml:space="preserve">Acceptation/refus exposés en GET (à convertir en POST)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Login admin  (GET/POST /admin/login + Admin::login)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dashboard (compteurs utilisateurs/objets/echanges/propositions/categories)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gestion categories (liste/ajout/modif/suppression)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liens d'accessibilite ajoutes (navbar + page login admin)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suppression categorie en GET</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Partie 3/3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtres par intervalle de prix (±10% et ±20%) implementes dans mes objets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propositions d'echange integre avec difference de prix affichee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Correction affichage erreurs AJAX dans formulaires</t>
   </si>
 </sst>
 </file>
@@ -322,7 +352,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
@@ -330,46 +360,46 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="22" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="23" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="21" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -377,7 +407,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="25" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="9" xfId="23" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -391,6 +421,10 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="19" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -401,12 +435,12 @@
     <cellStyle name="Currency" xfId="17" builtinId="4"/>
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="Coin de la table dynamique" xfId="20"/>
-    <cellStyle name="Valeur de la table dynamique" xfId="21"/>
-    <cellStyle name="Champ de la table dynamique" xfId="22"/>
-    <cellStyle name="Catégorie de la table dynamique" xfId="23"/>
+    <cellStyle name="Catégorie de la table dynamique" xfId="20"/>
+    <cellStyle name="Champ de la table dynamique" xfId="21"/>
+    <cellStyle name="Coin de la table dynamique" xfId="22"/>
+    <cellStyle name="Résultat de la table dynamique" xfId="23"/>
     <cellStyle name="Titre de la table dynamique" xfId="24"/>
-    <cellStyle name="Résultat de la table dynamique" xfId="25"/>
+    <cellStyle name="Valeur de la table dynamique" xfId="25"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -835,7 +869,7 @@
   </sheetPr>
   <dimension ref="A3:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -903,8 +937,8 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G19" activeCellId="0" sqref="G19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1580,6 +1614,204 @@
         <v>2</v>
       </c>
     </row>
+    <row r="28" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D28" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E28" s="11" t="n">
+        <f aca="false">C28-D28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="12" t="n">
+        <f aca="false">D28/(D28+E28)</f>
+        <v>1</v>
+      </c>
+      <c r="G28" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D29" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E29" s="11" t="n">
+        <f aca="false">C29-D29</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="12" t="n">
+        <f aca="false">D29/(D29+E29)</f>
+        <v>1</v>
+      </c>
+      <c r="G29" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D30" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E30" s="11" t="n">
+        <f aca="false">C30-D30</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="12" t="n">
+        <f aca="false">D30/(D30+E30)</f>
+        <v>1</v>
+      </c>
+      <c r="G30" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="D31" s="13" t="n">
+        <v>10</v>
+      </c>
+      <c r="E31" s="11" t="n">
+        <f aca="false">C31-D31</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="12" t="n">
+        <f aca="false">D31/(D31+E31)</f>
+        <v>1</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="13" t="n">
+        <v>15</v>
+      </c>
+      <c r="D32" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E32" s="11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" s="12" t="n">
+        <f aca="false">D32/(D32+E32)</f>
+        <v>1</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D33" s="13" t="n">
+        <v>35</v>
+      </c>
+      <c r="E33" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" s="12" t="n">
+        <f aca="false">D33/(D33+E33)</f>
+        <v>1</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C34" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="D34" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E34" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" s="12" t="n">
+        <f aca="false">D34/(D34+E34)</f>
+        <v>1</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C35" s="13" t="n">
+        <v>30</v>
+      </c>
+      <c r="D35" s="13" t="n">
+        <v>20</v>
+      </c>
+      <c r="E35" s="11" t="n">
+        <f aca="false">C35-D35</f>
+        <v>10</v>
+      </c>
+      <c r="F35" s="12" t="n">
+        <f aca="false">D35/(D35+E35)</f>
+        <v>0.666666666666667</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
